--- a/medicine/Enfance/Beans_(film)/Beans_(film).xlsx
+++ b/medicine/Enfance/Beans_(film)/Beans_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beans est un film dramatique canadien réalisé par Tracey Deer et sorti en 2020. Le film raconte la crise d'Oka de 1990 à Kanesatake que Deer a vécue enfant.
 La première du film a eu lieu le 13 septembre 2020 au Festival international du film de Toronto (TIFF), où il a terminé deuxième pour le prix du public. Il a aussi été projeté au New York International Children's Film Festival en mars 2021.
-Le film a remporté plusieurs prix au Canada et à l'international, notamment au 9e prix Écrans canadiens en 2021[1].
+Le film a remporté plusieurs prix au Canada et à l'international, notamment au 9e prix Écrans canadiens en 2021.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte les évènements de la crise d'Oka du point de vue de la jeune Beans, fille mohawk de 12 ans.
 </t>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Beans
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Kiawentiio Tarbell (VQ : Alice Déry) : Beans
@@ -627,9 +645,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire semi-autobiographique est basée sur les évènements historiques que Deer a vécus quand elle était enfant[2]. Même si la réalisatrice a inclus des passages durs, elle a dit vouloir éviter que le film soit traumatisant pour les spectateurs. Le film est déconseillé aux moins de 14 ans. Le tournage a eu lieu à Kahnawake et à Montréal en 2019.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire semi-autobiographique est basée sur les évènements historiques que Deer a vécus quand elle était enfant. Même si la réalisatrice a inclus des passages durs, elle a dit vouloir éviter que le film soit traumatisant pour les spectateurs. Le film est déconseillé aux moins de 14 ans. Le tournage a eu lieu à Kahnawake et à Montréal en 2019.
 Deer a commence à écrire le scénario en 2012. Cela a été un long processus de sept ans, en partie parce que se remémorer la crise d'Oka a fait remonter de douloureux souvenirs. Elle a suivi une thérapie pour l'aider à gérer cela. Meredith Vuchnich a collaboré avec elle pour l'écriture du scénario.
 </t>
         </is>
@@ -661,11 +681,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En juillet 2021, le site agrégateur de critiques américain Rotten Tomatoes affiche un score de 93 % d'avis favorables sur un total de vingt-sept critiques[3]. Alexandre Vigneault du site La Presse attribue quatre étoile au film[2].
-Beans a été listé au Canada's Top Ten du TIFF pour les longs-métrages[4].
-Nominations et récompenses
-Le film a remporté le prix du meilleur film au 9e prix Écrans canadiens en 2021[1], ainsi que le prix John Dunning du meilleur long-métrage pour un premier film[5]. À la Berlinale 2021, le film remporte l'Ours de cristal du meilleur film dans la catégorie Génération Kplus[6]. En 2022, le film fait partie des cinq finalistes de la 11e édition du Prix collégial du cinéma québécois (PCCQ), le lauréat sera choisi par des étudiants de 53 collèges et cégeps répartis à travers le Québec[7].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2021, le site agrégateur de critiques américain Rotten Tomatoes affiche un score de 93 % d'avis favorables sur un total de vingt-sept critiques. Alexandre Vigneault du site La Presse attribue quatre étoile au film.
+Beans a été listé au Canada's Top Ten du TIFF pour les longs-métrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beans_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beans_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations et récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a remporté le prix du meilleur film au 9e prix Écrans canadiens en 2021, ainsi que le prix John Dunning du meilleur long-métrage pour un premier film. À la Berlinale 2021, le film remporte l'Ours de cristal du meilleur film dans la catégorie Génération Kplus. En 2022, le film fait partie des cinq finalistes de la 11e édition du Prix collégial du cinéma québécois (PCCQ), le lauréat sera choisi par des étudiants de 53 collèges et cégeps répartis à travers le Québec.
 </t>
         </is>
       </c>
